--- a/frontend/public/csv/IDRKRW.xlsx
+++ b/frontend/public/csv/IDRKRW.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\song-e-pay\frontend\public\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B055D9-D968-468B-8F16-CA08C1E51390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -992,7 +993,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1318,23 +1319,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E316"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="M310" sqref="M310"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.9140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>315</v>
       </c>
@@ -1351,12 +1352,12 @@
         <v>319</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1368,12 +1369,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1385,12 +1386,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1402,12 +1403,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1419,12 +1420,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1436,12 +1437,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1453,12 +1454,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1470,12 +1471,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1487,12 +1488,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1504,12 +1505,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1521,12 +1522,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1538,12 +1539,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1555,12 +1556,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1572,12 +1573,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1589,12 +1590,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1606,12 +1607,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1623,12 +1624,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1640,12 +1641,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1657,12 +1658,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1674,12 +1675,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1691,12 +1692,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1708,12 +1709,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1725,12 +1726,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1742,12 +1743,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1759,12 +1760,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1776,12 +1777,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1793,12 +1794,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1810,12 +1811,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1827,12 +1828,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1844,12 +1845,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1861,12 +1862,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1878,12 +1879,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1895,12 +1896,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1912,12 +1913,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1929,12 +1930,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1946,12 +1947,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1963,12 +1964,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1980,12 +1981,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1997,12 +1998,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2014,12 +2015,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2031,12 +2032,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -2048,12 +2049,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -2065,12 +2066,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -2082,12 +2083,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -2099,12 +2100,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -2116,12 +2117,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -2133,12 +2134,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -2150,12 +2151,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -2167,12 +2168,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -2184,12 +2185,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -2201,12 +2202,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -2218,12 +2219,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -2235,12 +2236,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -2252,12 +2253,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -2269,12 +2270,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -2286,12 +2287,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -2303,12 +2304,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -2320,12 +2321,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -2337,12 +2338,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -2354,12 +2355,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -2371,12 +2372,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -2388,12 +2389,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2405,12 +2406,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2422,12 +2423,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -2439,12 +2440,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -2456,12 +2457,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -2473,12 +2474,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -2490,12 +2491,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -2507,12 +2508,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -2524,12 +2525,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -2541,12 +2542,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2558,12 +2559,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -2575,12 +2576,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -2592,12 +2593,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -2609,12 +2610,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -2626,12 +2627,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2643,12 +2644,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -2660,12 +2661,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2677,12 +2678,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -2694,12 +2695,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2711,12 +2712,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -2728,12 +2729,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -2745,12 +2746,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2762,12 +2763,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -2779,12 +2780,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2796,12 +2797,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2813,12 +2814,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -2830,12 +2831,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -2847,12 +2848,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -2864,12 +2865,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -2881,12 +2882,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -2898,12 +2899,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -2915,12 +2916,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2932,12 +2933,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2949,12 +2950,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2966,12 +2967,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -2983,12 +2984,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -3000,12 +3001,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -3017,12 +3018,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -3034,12 +3035,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -3051,12 +3052,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -3068,12 +3069,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -3085,12 +3086,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -3102,12 +3103,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -3119,12 +3120,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -3136,12 +3137,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -3153,12 +3154,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -3170,12 +3171,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -3187,12 +3188,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -3204,12 +3205,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -3221,12 +3222,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -3238,12 +3239,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -3255,12 +3256,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -3272,12 +3273,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -3289,12 +3290,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -3306,12 +3307,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -3323,12 +3324,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -3340,12 +3341,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -3357,12 +3358,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -3374,12 +3375,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -3391,12 +3392,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -3408,12 +3409,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -3425,12 +3426,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -3442,12 +3443,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -3459,12 +3460,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -3476,12 +3477,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -3493,12 +3494,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -3510,12 +3511,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -3527,12 +3528,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -3544,12 +3545,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -3561,12 +3562,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -3578,12 +3579,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -3595,12 +3596,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -3612,12 +3613,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -3629,12 +3630,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -3646,12 +3647,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -3663,12 +3664,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -3680,12 +3681,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -3697,12 +3698,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -3714,12 +3715,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -3731,12 +3732,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -3748,12 +3749,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -3765,12 +3766,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -3782,12 +3783,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -3799,12 +3800,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -3816,12 +3817,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -3833,12 +3834,12 @@
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -3850,12 +3851,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -3867,12 +3868,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -3884,12 +3885,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -3901,12 +3902,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -3918,12 +3919,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -3935,12 +3936,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -3952,12 +3953,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -3969,12 +3970,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -3986,12 +3987,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -4003,12 +4004,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -4020,12 +4021,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -4037,12 +4038,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -4054,12 +4055,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -4071,12 +4072,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -4088,12 +4089,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -4105,12 +4106,12 @@
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -4122,12 +4123,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -4139,12 +4140,12 @@
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -4156,12 +4157,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -4173,12 +4174,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -4190,12 +4191,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -4207,12 +4208,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -4224,12 +4225,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -4241,12 +4242,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -4258,12 +4259,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -4275,12 +4276,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -4292,12 +4293,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -4309,12 +4310,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -4326,12 +4327,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -4343,12 +4344,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -4360,12 +4361,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -4377,12 +4378,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -4394,12 +4395,12 @@
         <v>178</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -4411,12 +4412,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -4428,12 +4429,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -4445,12 +4446,12 @@
         <v>181</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -4462,12 +4463,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -4479,12 +4480,12 @@
         <v>183</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -4496,12 +4497,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -4513,12 +4514,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -4530,12 +4531,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -4547,12 +4548,12 @@
         <v>187</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -4564,12 +4565,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -4581,12 +4582,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -4598,12 +4599,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -4615,12 +4616,12 @@
         <v>191</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -4632,12 +4633,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -4649,12 +4650,12 @@
         <v>193</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -4666,12 +4667,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -4683,12 +4684,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -4700,12 +4701,12 @@
         <v>196</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -4717,12 +4718,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -4734,12 +4735,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -4751,12 +4752,12 @@
         <v>199</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -4768,12 +4769,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -4785,12 +4786,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -4802,12 +4803,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -4819,12 +4820,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -4836,12 +4837,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -4853,12 +4854,12 @@
         <v>205</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -4870,12 +4871,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -4887,12 +4888,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -4904,12 +4905,12 @@
         <v>208</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -4921,12 +4922,12 @@
         <v>209</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -4938,12 +4939,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -4955,12 +4956,12 @@
         <v>211</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -4972,12 +4973,12 @@
         <v>212</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>214</v>
       </c>
       <c r="B215">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -4989,12 +4990,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>215</v>
       </c>
       <c r="B216">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -5006,12 +5007,12 @@
         <v>214</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>216</v>
       </c>
       <c r="B217">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -5023,12 +5024,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>217</v>
       </c>
       <c r="B218">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C218">
         <v>0</v>
@@ -5040,12 +5041,12 @@
         <v>216</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>218</v>
       </c>
       <c r="B219">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C219">
         <v>0</v>
@@ -5057,12 +5058,12 @@
         <v>217</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>219</v>
       </c>
       <c r="B220">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -5074,12 +5075,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>220</v>
       </c>
       <c r="B221">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -5091,12 +5092,12 @@
         <v>219</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>221</v>
       </c>
       <c r="B222">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -5108,12 +5109,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>222</v>
       </c>
       <c r="B223">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -5125,12 +5126,12 @@
         <v>221</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>223</v>
       </c>
       <c r="B224">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C224">
         <v>0</v>
@@ -5142,12 +5143,12 @@
         <v>222</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>224</v>
       </c>
       <c r="B225">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C225">
         <v>0</v>
@@ -5159,12 +5160,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>225</v>
       </c>
       <c r="B226">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -5176,12 +5177,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>226</v>
       </c>
       <c r="B227">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C227">
         <v>0</v>
@@ -5193,12 +5194,12 @@
         <v>225</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>227</v>
       </c>
       <c r="B228">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C228">
         <v>0</v>
@@ -5210,12 +5211,12 @@
         <v>226</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>228</v>
       </c>
       <c r="B229">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C229">
         <v>0</v>
@@ -5227,12 +5228,12 @@
         <v>227</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>229</v>
       </c>
       <c r="B230">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C230">
         <v>0</v>
@@ -5244,12 +5245,12 @@
         <v>228</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>230</v>
       </c>
       <c r="B231">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -5261,12 +5262,12 @@
         <v>229</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>231</v>
       </c>
       <c r="B232">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -5278,12 +5279,12 @@
         <v>230</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>232</v>
       </c>
       <c r="B233">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -5295,12 +5296,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>233</v>
       </c>
       <c r="B234">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -5312,12 +5313,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>234</v>
       </c>
       <c r="B235">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C235">
         <v>0</v>
@@ -5329,12 +5330,12 @@
         <v>233</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>235</v>
       </c>
       <c r="B236">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -5346,12 +5347,12 @@
         <v>234</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>236</v>
       </c>
       <c r="B237">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -5363,12 +5364,12 @@
         <v>235</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>237</v>
       </c>
       <c r="B238">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -5380,12 +5381,12 @@
         <v>236</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>238</v>
       </c>
       <c r="B239">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C239">
         <v>0</v>
@@ -5397,12 +5398,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>239</v>
       </c>
       <c r="B240">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C240">
         <v>0</v>
@@ -5414,12 +5415,12 @@
         <v>238</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>240</v>
       </c>
       <c r="B241">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -5431,12 +5432,12 @@
         <v>239</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>241</v>
       </c>
       <c r="B242">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C242">
         <v>0</v>
@@ -5448,12 +5449,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>242</v>
       </c>
       <c r="B243">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C243">
         <v>0</v>
@@ -5465,12 +5466,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>243</v>
       </c>
       <c r="B244">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C244">
         <v>0</v>
@@ -5482,12 +5483,12 @@
         <v>242</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>244</v>
       </c>
       <c r="B245">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C245">
         <v>0</v>
@@ -5499,12 +5500,12 @@
         <v>243</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>245</v>
       </c>
       <c r="B246">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C246">
         <v>0</v>
@@ -5516,12 +5517,12 @@
         <v>244</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>246</v>
       </c>
       <c r="B247">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C247">
         <v>0</v>
@@ -5533,12 +5534,12 @@
         <v>245</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>247</v>
       </c>
       <c r="B248">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C248">
         <v>0</v>
@@ -5550,12 +5551,12 @@
         <v>246</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>248</v>
       </c>
       <c r="B249">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C249">
         <v>0</v>
@@ -5567,12 +5568,12 @@
         <v>247</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>249</v>
       </c>
       <c r="B250">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C250">
         <v>0</v>
@@ -5584,12 +5585,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>250</v>
       </c>
       <c r="B251">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C251">
         <v>0</v>
@@ -5601,12 +5602,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>251</v>
       </c>
       <c r="B252">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C252">
         <v>0</v>
@@ -5618,12 +5619,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>252</v>
       </c>
       <c r="B253">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C253">
         <v>0</v>
@@ -5635,12 +5636,12 @@
         <v>251</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>253</v>
       </c>
       <c r="B254">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C254">
         <v>0</v>
@@ -5652,12 +5653,12 @@
         <v>252</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>254</v>
       </c>
       <c r="B255">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C255">
         <v>0</v>
@@ -5669,12 +5670,12 @@
         <v>253</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>255</v>
       </c>
       <c r="B256">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C256">
         <v>0</v>
@@ -5686,12 +5687,12 @@
         <v>254</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>256</v>
       </c>
       <c r="B257">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C257">
         <v>0</v>
@@ -5703,12 +5704,12 @@
         <v>255</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>257</v>
       </c>
       <c r="B258">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C258">
         <v>0</v>
@@ -5720,12 +5721,12 @@
         <v>256</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>258</v>
       </c>
       <c r="B259">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C259">
         <v>0</v>
@@ -5737,12 +5738,12 @@
         <v>257</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>259</v>
       </c>
       <c r="B260">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C260">
         <v>0</v>
@@ -5754,12 +5755,12 @@
         <v>258</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>260</v>
       </c>
       <c r="B261">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C261">
         <v>0</v>
@@ -5771,12 +5772,12 @@
         <v>259</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>261</v>
       </c>
       <c r="B262">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C262">
         <v>0</v>
@@ -5788,12 +5789,12 @@
         <v>260</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>262</v>
       </c>
       <c r="B263">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C263">
         <v>0</v>
@@ -5805,12 +5806,12 @@
         <v>261</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A264">
         <v>263</v>
       </c>
       <c r="B264">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C264">
         <v>0</v>
@@ -5822,12 +5823,12 @@
         <v>262</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A265">
         <v>264</v>
       </c>
       <c r="B265">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C265">
         <v>0</v>
@@ -5839,12 +5840,12 @@
         <v>263</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A266">
         <v>265</v>
       </c>
       <c r="B266">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C266">
         <v>0</v>
@@ -5856,12 +5857,12 @@
         <v>264</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>266</v>
       </c>
       <c r="B267">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C267">
         <v>0</v>
@@ -5873,12 +5874,12 @@
         <v>265</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>267</v>
       </c>
       <c r="B268">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C268">
         <v>0</v>
@@ -5890,12 +5891,12 @@
         <v>266</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A269">
         <v>268</v>
       </c>
       <c r="B269">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C269">
         <v>0</v>
@@ -5907,12 +5908,12 @@
         <v>267</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A270">
         <v>269</v>
       </c>
       <c r="B270">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C270">
         <v>0</v>
@@ -5924,12 +5925,12 @@
         <v>268</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A271">
         <v>270</v>
       </c>
       <c r="B271">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C271">
         <v>0</v>
@@ -5941,12 +5942,12 @@
         <v>269</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>271</v>
       </c>
       <c r="B272">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C272">
         <v>0</v>
@@ -5958,12 +5959,12 @@
         <v>270</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>272</v>
       </c>
       <c r="B273">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C273">
         <v>0</v>
@@ -5975,12 +5976,12 @@
         <v>271</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>273</v>
       </c>
       <c r="B274">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C274">
         <v>0</v>
@@ -5992,12 +5993,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A275">
         <v>274</v>
       </c>
       <c r="B275">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C275">
         <v>0</v>
@@ -6009,12 +6010,12 @@
         <v>273</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>275</v>
       </c>
       <c r="B276">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C276">
         <v>0</v>
@@ -6026,12 +6027,12 @@
         <v>274</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>276</v>
       </c>
       <c r="B277">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C277">
         <v>0</v>
@@ -6043,12 +6044,12 @@
         <v>275</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>277</v>
       </c>
       <c r="B278">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C278">
         <v>0</v>
@@ -6060,12 +6061,12 @@
         <v>276</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>278</v>
       </c>
       <c r="B279">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C279">
         <v>0</v>
@@ -6077,12 +6078,12 @@
         <v>277</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>279</v>
       </c>
       <c r="B280">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C280">
         <v>0</v>
@@ -6094,12 +6095,12 @@
         <v>278</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A281">
         <v>280</v>
       </c>
       <c r="B281">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C281">
         <v>0</v>
@@ -6111,12 +6112,12 @@
         <v>279</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>281</v>
       </c>
       <c r="B282">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C282">
         <v>0</v>
@@ -6128,12 +6129,12 @@
         <v>280</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>282</v>
       </c>
       <c r="B283">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C283">
         <v>0</v>
@@ -6145,12 +6146,12 @@
         <v>281</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A284">
         <v>283</v>
       </c>
       <c r="B284">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C284">
         <v>0</v>
@@ -6162,12 +6163,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A285">
         <v>284</v>
       </c>
       <c r="B285">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C285">
         <v>0</v>
@@ -6179,12 +6180,12 @@
         <v>283</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A286">
         <v>285</v>
       </c>
       <c r="B286">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C286">
         <v>0</v>
@@ -6196,12 +6197,12 @@
         <v>284</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>286</v>
       </c>
       <c r="B287">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C287">
         <v>0</v>
@@ -6213,12 +6214,12 @@
         <v>285</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>287</v>
       </c>
       <c r="B288">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C288">
         <v>0</v>
@@ -6230,12 +6231,12 @@
         <v>286</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A289">
         <v>288</v>
       </c>
       <c r="B289">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C289">
         <v>0</v>
@@ -6247,12 +6248,12 @@
         <v>287</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>289</v>
       </c>
       <c r="B290">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C290">
         <v>0</v>
@@ -6264,12 +6265,12 @@
         <v>288</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A291">
         <v>290</v>
       </c>
       <c r="B291">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C291">
         <v>0</v>
@@ -6281,12 +6282,12 @@
         <v>289</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>291</v>
       </c>
       <c r="B292">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C292">
         <v>0</v>
@@ -6298,12 +6299,12 @@
         <v>290</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>292</v>
       </c>
       <c r="B293">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C293">
         <v>0</v>
@@ -6315,12 +6316,12 @@
         <v>291</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A294">
         <v>293</v>
       </c>
       <c r="B294">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C294">
         <v>0</v>
@@ -6332,12 +6333,12 @@
         <v>292</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A295">
         <v>294</v>
       </c>
       <c r="B295">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C295">
         <v>0</v>
@@ -6349,12 +6350,12 @@
         <v>293</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A296">
         <v>295</v>
       </c>
       <c r="B296">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C296">
         <v>0</v>
@@ -6366,12 +6367,12 @@
         <v>294</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>296</v>
       </c>
       <c r="B297">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C297">
         <v>0</v>
@@ -6383,12 +6384,12 @@
         <v>295</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>297</v>
       </c>
       <c r="B298">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C298">
         <v>0</v>
@@ -6400,12 +6401,12 @@
         <v>296</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A299">
         <v>298</v>
       </c>
       <c r="B299">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C299">
         <v>0</v>
@@ -6417,12 +6418,12 @@
         <v>297</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A300">
         <v>299</v>
       </c>
       <c r="B300">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C300">
         <v>0</v>
@@ -6434,12 +6435,12 @@
         <v>298</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A301">
         <v>300</v>
       </c>
       <c r="B301">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C301">
         <v>0</v>
@@ -6451,12 +6452,12 @@
         <v>299</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>301</v>
       </c>
       <c r="B302">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C302">
         <v>0</v>
@@ -6468,12 +6469,12 @@
         <v>300</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>302</v>
       </c>
       <c r="B303">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C303">
         <v>0</v>
@@ -6485,12 +6486,12 @@
         <v>301</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A304">
         <v>303</v>
       </c>
       <c r="B304">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C304">
         <v>0</v>
@@ -6502,12 +6503,12 @@
         <v>302</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A305">
         <v>304</v>
       </c>
       <c r="B305">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C305">
         <v>0</v>
@@ -6519,12 +6520,12 @@
         <v>303</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A306">
         <v>305</v>
       </c>
       <c r="B306">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C306">
         <v>0</v>
@@ -6536,12 +6537,12 @@
         <v>304</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>306</v>
       </c>
       <c r="B307">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C307">
         <v>0</v>
@@ -6553,12 +6554,12 @@
         <v>305</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>307</v>
       </c>
       <c r="B308">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C308">
         <v>0</v>
@@ -6570,12 +6571,12 @@
         <v>306</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A309">
         <v>308</v>
       </c>
       <c r="B309">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C309">
         <v>0</v>
@@ -6587,12 +6588,12 @@
         <v>307</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A310">
         <v>309</v>
       </c>
       <c r="B310">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C310">
         <v>0</v>
@@ -6604,12 +6605,12 @@
         <v>308</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A311">
         <v>310</v>
       </c>
       <c r="B311">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C311">
         <v>0</v>
@@ -6621,12 +6622,12 @@
         <v>309</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A312">
         <v>311</v>
       </c>
       <c r="B312">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C312">
         <v>0</v>
@@ -6638,12 +6639,12 @@
         <v>310</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A313">
         <v>312</v>
       </c>
       <c r="B313">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C313">
         <v>0</v>
@@ -6655,12 +6656,12 @@
         <v>311</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A314">
         <v>313</v>
       </c>
       <c r="B314">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C314">
         <v>0</v>
@@ -6672,12 +6673,12 @@
         <v>312</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A315">
         <v>314</v>
       </c>
       <c r="B315">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C315">
         <v>0</v>
@@ -6689,12 +6690,12 @@
         <v>313</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A316">
         <v>315</v>
       </c>
       <c r="B316">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C316">
         <v>0</v>

--- a/frontend/public/csv/IDRKRW.xlsx
+++ b/frontend/public/csv/IDRKRW.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\song-e-pay\frontend\public\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project_LBY\song-e-pay\frontend\public\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B055D9-D968-468B-8F16-CA08C1E51390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B7305C-18F4-4CE8-94E3-4F034D7772FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1322,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="M310" sqref="M310"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1363,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.4600000000000009</v>
+        <v>8.4600000000000009E-2</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -1380,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.52</v>
+        <v>8.5199999999999998E-2</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
@@ -1397,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.5</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -1414,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.5</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
@@ -1431,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.52</v>
+        <v>8.5199999999999998E-2</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -1448,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.58</v>
+        <v>8.5800000000000001E-2</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -1465,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.5399999999999991</v>
+        <v>8.539999999999999E-2</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -1482,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.56</v>
+        <v>8.5600000000000009E-2</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -1499,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.56</v>
+        <v>8.5600000000000009E-2</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -1516,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.56</v>
+        <v>8.5600000000000009E-2</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -1533,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.56</v>
+        <v>8.5600000000000009E-2</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -1550,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.59</v>
+        <v>8.5900000000000004E-2</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -1567,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.52</v>
+        <v>8.5199999999999998E-2</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
@@ -1584,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.4700000000000006</v>
+        <v>8.4700000000000011E-2</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
@@ -1601,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.49</v>
+        <v>8.4900000000000003E-2</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -1618,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.49</v>
+        <v>8.4900000000000003E-2</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
@@ -1635,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.49</v>
+        <v>8.4900000000000003E-2</v>
       </c>
       <c r="E18" t="s">
         <v>16</v>
@@ -1652,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.41</v>
+        <v>8.4100000000000008E-2</v>
       </c>
       <c r="E19" t="s">
         <v>17</v>
@@ -1669,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.34</v>
+        <v>8.3400000000000002E-2</v>
       </c>
       <c r="E20" t="s">
         <v>18</v>
@@ -1686,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.39</v>
+        <v>8.3900000000000002E-2</v>
       </c>
       <c r="E21" t="s">
         <v>19</v>
@@ -1703,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.44</v>
+        <v>8.4399999999999989E-2</v>
       </c>
       <c r="E22" t="s">
         <v>20</v>
@@ -1720,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.44</v>
+        <v>8.4399999999999989E-2</v>
       </c>
       <c r="E23" t="s">
         <v>21</v>
@@ -1737,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.4600000000000009</v>
+        <v>8.4600000000000009E-2</v>
       </c>
       <c r="E24" t="s">
         <v>22</v>
@@ -1754,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.44</v>
+        <v>8.4399999999999989E-2</v>
       </c>
       <c r="E25" t="s">
         <v>23</v>
@@ -1771,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>8.42</v>
+        <v>8.4199999999999997E-2</v>
       </c>
       <c r="E26" t="s">
         <v>24</v>
@@ -1788,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>8.4600000000000009</v>
+        <v>8.4600000000000009E-2</v>
       </c>
       <c r="E27" t="s">
         <v>25</v>
@@ -1805,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>8.3699999999999992</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="E28" t="s">
         <v>26</v>
@@ -1822,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>8.3699999999999992</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="E29" t="s">
         <v>27</v>
@@ -1839,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>8.35</v>
+        <v>8.3499999999999991E-2</v>
       </c>
       <c r="E30" t="s">
         <v>28</v>
@@ -1856,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>8.25</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="E31" t="s">
         <v>29</v>
@@ -1873,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>8.34</v>
+        <v>8.3400000000000002E-2</v>
       </c>
       <c r="E32" t="s">
         <v>30</v>
@@ -1890,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>8.3800000000000008</v>
+        <v>8.3800000000000013E-2</v>
       </c>
       <c r="E33" t="s">
         <v>31</v>
@@ -1907,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>8.33</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="E34" t="s">
         <v>32</v>
@@ -1924,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>8.33</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="E35" t="s">
         <v>33</v>
@@ -1941,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>8.3000000000000007</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="E36" t="s">
         <v>34</v>
@@ -1958,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>8.31</v>
+        <v>8.3100000000000007E-2</v>
       </c>
       <c r="E37" t="s">
         <v>35</v>
@@ -1975,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>8.3800000000000008</v>
+        <v>8.3800000000000013E-2</v>
       </c>
       <c r="E38" t="s">
         <v>36</v>
@@ -1992,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>8.23</v>
+        <v>8.2299999999999998E-2</v>
       </c>
       <c r="E39" t="s">
         <v>37</v>
@@ -2009,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>8.16</v>
+        <v>8.1600000000000006E-2</v>
       </c>
       <c r="E40" t="s">
         <v>38</v>
@@ -2026,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>8.16</v>
+        <v>8.1600000000000006E-2</v>
       </c>
       <c r="E41" t="s">
         <v>39</v>
@@ -2043,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>8.08</v>
+        <v>8.0799999999999997E-2</v>
       </c>
       <c r="E42" t="s">
         <v>40</v>
@@ -2060,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>8.26</v>
+        <v>8.2599999999999993E-2</v>
       </c>
       <c r="E43" t="s">
         <v>41</v>
@@ -2077,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>8.23</v>
+        <v>8.2299999999999998E-2</v>
       </c>
       <c r="E44" t="s">
         <v>42</v>
@@ -2094,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>8.2100000000000009</v>
+        <v>8.2100000000000006E-2</v>
       </c>
       <c r="E45" t="s">
         <v>43</v>
@@ -2111,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>8.26</v>
+        <v>8.2599999999999993E-2</v>
       </c>
       <c r="E46" t="s">
         <v>44</v>
@@ -2128,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>8.26</v>
+        <v>8.2599999999999993E-2</v>
       </c>
       <c r="E47" t="s">
         <v>45</v>
@@ -2145,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>8.25</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="E48" t="s">
         <v>46</v>
@@ -2162,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>8.2799999999999994</v>
+        <v>8.2799999999999999E-2</v>
       </c>
       <c r="E49" t="s">
         <v>47</v>
@@ -2179,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>8.11</v>
+        <v>8.1099999999999992E-2</v>
       </c>
       <c r="E50" t="s">
         <v>48</v>
@@ -2196,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>8.16</v>
+        <v>8.1600000000000006E-2</v>
       </c>
       <c r="E51" t="s">
         <v>49</v>
@@ -2213,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>8.16</v>
+        <v>8.1600000000000006E-2</v>
       </c>
       <c r="E52" t="s">
         <v>50</v>
@@ -2230,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>8.16</v>
+        <v>8.1600000000000006E-2</v>
       </c>
       <c r="E53" t="s">
         <v>51</v>
@@ -2247,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>8.16</v>
+        <v>8.1600000000000006E-2</v>
       </c>
       <c r="E54" t="s">
         <v>52</v>
@@ -2264,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>8.19</v>
+        <v>8.1900000000000001E-2</v>
       </c>
       <c r="E55" t="s">
         <v>53</v>
@@ -2281,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>8.26</v>
+        <v>8.2599999999999993E-2</v>
       </c>
       <c r="E56" t="s">
         <v>54</v>
@@ -2298,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>8.16</v>
+        <v>8.1600000000000006E-2</v>
       </c>
       <c r="E57" t="s">
         <v>55</v>
@@ -2315,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>8.23</v>
+        <v>8.2299999999999998E-2</v>
       </c>
       <c r="E58" t="s">
         <v>56</v>
@@ -2332,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>8.23</v>
+        <v>8.2299999999999998E-2</v>
       </c>
       <c r="E59" t="s">
         <v>57</v>
@@ -2349,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>8.1999999999999993</v>
+        <v>8.199999999999999E-2</v>
       </c>
       <c r="E60" t="s">
         <v>58</v>
@@ -2366,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>8.18</v>
+        <v>8.1799999999999998E-2</v>
       </c>
       <c r="E61" t="s">
         <v>59</v>
@@ -2383,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>8.17</v>
+        <v>8.1699999999999995E-2</v>
       </c>
       <c r="E62" t="s">
         <v>60</v>
@@ -2400,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>8.24</v>
+        <v>8.2400000000000001E-2</v>
       </c>
       <c r="E63" t="s">
         <v>61</v>
@@ -2417,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>8.24</v>
+        <v>8.2400000000000001E-2</v>
       </c>
       <c r="E64" t="s">
         <v>62</v>
@@ -2434,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>8.24</v>
+        <v>8.2400000000000001E-2</v>
       </c>
       <c r="E65" t="s">
         <v>63</v>
@@ -2451,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>8.25</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="E66" t="s">
         <v>64</v>
@@ -2468,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>8.31</v>
+        <v>8.3100000000000007E-2</v>
       </c>
       <c r="E67" t="s">
         <v>65</v>
@@ -2485,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>8.3000000000000007</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="E68" t="s">
         <v>66</v>
@@ -2502,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>8.35</v>
+        <v>8.3499999999999991E-2</v>
       </c>
       <c r="E69" t="s">
         <v>67</v>
@@ -2519,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>8.26</v>
+        <v>8.2599999999999993E-2</v>
       </c>
       <c r="E70" t="s">
         <v>68</v>
@@ -2536,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>8.26</v>
+        <v>8.2599999999999993E-2</v>
       </c>
       <c r="E71" t="s">
         <v>69</v>
@@ -2553,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>8.32</v>
+        <v>8.3199999999999996E-2</v>
       </c>
       <c r="E72" t="s">
         <v>70</v>
@@ -2570,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>8.23</v>
+        <v>8.2299999999999998E-2</v>
       </c>
       <c r="E73" t="s">
         <v>71</v>
@@ -2587,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>8.27</v>
+        <v>8.2699999999999996E-2</v>
       </c>
       <c r="E74" t="s">
         <v>72</v>
@@ -2604,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>8.11</v>
+        <v>8.1099999999999992E-2</v>
       </c>
       <c r="E75" t="s">
         <v>73</v>
@@ -2621,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>8.19</v>
+        <v>8.1900000000000001E-2</v>
       </c>
       <c r="E76" t="s">
         <v>74</v>
@@ -2638,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>8.19</v>
+        <v>8.1900000000000001E-2</v>
       </c>
       <c r="E77" t="s">
         <v>75</v>
@@ -2655,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>8.2100000000000009</v>
+        <v>8.2100000000000006E-2</v>
       </c>
       <c r="E78" t="s">
         <v>76</v>
@@ -2672,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>8.26</v>
+        <v>8.2599999999999993E-2</v>
       </c>
       <c r="E79" t="s">
         <v>77</v>
@@ -2689,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>8.2100000000000009</v>
+        <v>8.2100000000000006E-2</v>
       </c>
       <c r="E80" t="s">
         <v>78</v>
@@ -2706,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>8.23</v>
+        <v>8.2299999999999998E-2</v>
       </c>
       <c r="E81" t="s">
         <v>79</v>
@@ -2723,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>8.2100000000000009</v>
+        <v>8.2100000000000006E-2</v>
       </c>
       <c r="E82" t="s">
         <v>80</v>
@@ -2740,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>8.2100000000000009</v>
+        <v>8.2100000000000006E-2</v>
       </c>
       <c r="E83" t="s">
         <v>81</v>
@@ -2757,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>8.2100000000000009</v>
+        <v>8.2100000000000006E-2</v>
       </c>
       <c r="E84" t="s">
         <v>82</v>
@@ -2774,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>8.1999999999999993</v>
+        <v>8.199999999999999E-2</v>
       </c>
       <c r="E85" t="s">
         <v>83</v>
@@ -2791,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>8.19</v>
+        <v>8.1900000000000001E-2</v>
       </c>
       <c r="E86" t="s">
         <v>84</v>
@@ -2808,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>8.16</v>
+        <v>8.1600000000000006E-2</v>
       </c>
       <c r="E87" t="s">
         <v>85</v>
@@ -2825,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>8.25</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="E88" t="s">
         <v>86</v>
@@ -2842,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>8.25</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="E89" t="s">
         <v>87</v>
@@ -2859,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>8.25</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="E90" t="s">
         <v>88</v>
@@ -2876,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>8.33</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="E91" t="s">
         <v>89</v>
@@ -2893,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>8.2799999999999994</v>
+        <v>8.2799999999999999E-2</v>
       </c>
       <c r="E92" t="s">
         <v>90</v>
@@ -2910,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>8.25</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="E93" t="s">
         <v>91</v>
@@ -2927,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>8.35</v>
+        <v>8.3499999999999991E-2</v>
       </c>
       <c r="E94" t="s">
         <v>92</v>
@@ -2944,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>8.35</v>
+        <v>8.3499999999999991E-2</v>
       </c>
       <c r="E95" t="s">
         <v>93</v>
@@ -2961,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>8.34</v>
+        <v>8.3400000000000002E-2</v>
       </c>
       <c r="E96" t="s">
         <v>94</v>
@@ -2978,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>8.32</v>
+        <v>8.3199999999999996E-2</v>
       </c>
       <c r="E97" t="s">
         <v>95</v>
@@ -2995,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="D98">
-        <v>8.33</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="E98" t="s">
         <v>96</v>
@@ -3012,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="D99">
-        <v>8.2899999999999991</v>
+        <v>8.2899999999999988E-2</v>
       </c>
       <c r="E99" t="s">
         <v>97</v>
@@ -3029,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="D100">
-        <v>8.27</v>
+        <v>8.2699999999999996E-2</v>
       </c>
       <c r="E100" t="s">
         <v>98</v>
@@ -3046,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="D101">
-        <v>8.27</v>
+        <v>8.2699999999999996E-2</v>
       </c>
       <c r="E101" t="s">
         <v>99</v>
@@ -3063,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="D102">
-        <v>8.32</v>
+        <v>8.3199999999999996E-2</v>
       </c>
       <c r="E102" t="s">
         <v>100</v>
@@ -3080,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="D103">
-        <v>8.41</v>
+        <v>8.4100000000000008E-2</v>
       </c>
       <c r="E103" t="s">
         <v>101</v>
@@ -3097,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="D104">
-        <v>8.4499999999999993</v>
+        <v>8.4499999999999992E-2</v>
       </c>
       <c r="E104" t="s">
         <v>102</v>
@@ -3114,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="D105">
-        <v>8.3800000000000008</v>
+        <v>8.3800000000000013E-2</v>
       </c>
       <c r="E105" t="s">
         <v>103</v>
@@ -3131,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="D106">
-        <v>8.3800000000000008</v>
+        <v>8.3800000000000013E-2</v>
       </c>
       <c r="E106" t="s">
         <v>104</v>
@@ -3148,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="D107">
-        <v>8.3800000000000008</v>
+        <v>8.3800000000000013E-2</v>
       </c>
       <c r="E107" t="s">
         <v>105</v>
@@ -3165,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="D108">
-        <v>8.4</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="E108" t="s">
         <v>106</v>
@@ -3182,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="D109">
-        <v>8.3699999999999992</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="E109" t="s">
         <v>107</v>
@@ -3199,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="D110">
-        <v>8.3699999999999992</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="E110" t="s">
         <v>108</v>
@@ -3216,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="D111">
-        <v>8.34</v>
+        <v>8.3400000000000002E-2</v>
       </c>
       <c r="E111" t="s">
         <v>109</v>
@@ -3233,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="D112">
-        <v>8.27</v>
+        <v>8.2699999999999996E-2</v>
       </c>
       <c r="E112" t="s">
         <v>110</v>
@@ -3250,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="D113">
-        <v>8.27</v>
+        <v>8.2699999999999996E-2</v>
       </c>
       <c r="E113" t="s">
         <v>111</v>
@@ -3267,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="D114">
-        <v>8.27</v>
+        <v>8.2699999999999996E-2</v>
       </c>
       <c r="E114" t="s">
         <v>112</v>
@@ -3284,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="D115">
-        <v>8.24</v>
+        <v>8.2400000000000001E-2</v>
       </c>
       <c r="E115" t="s">
         <v>113</v>
@@ -3301,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="D116">
-        <v>8.2799999999999994</v>
+        <v>8.2799999999999999E-2</v>
       </c>
       <c r="E116" t="s">
         <v>114</v>
@@ -3318,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="D117">
-        <v>8.2799999999999994</v>
+        <v>8.2799999999999999E-2</v>
       </c>
       <c r="E117" t="s">
         <v>115</v>
@@ -3335,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="D118">
-        <v>8.2200000000000006</v>
+        <v>8.2200000000000009E-2</v>
       </c>
       <c r="E118" t="s">
         <v>116</v>
@@ -3352,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="D119">
-        <v>8.31</v>
+        <v>8.3100000000000007E-2</v>
       </c>
       <c r="E119" t="s">
         <v>117</v>
@@ -3369,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="D120">
-        <v>8.34</v>
+        <v>8.3400000000000002E-2</v>
       </c>
       <c r="E120" t="s">
         <v>118</v>
@@ -3386,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="D121">
-        <v>8.2799999999999994</v>
+        <v>8.2799999999999999E-2</v>
       </c>
       <c r="E121" t="s">
         <v>119</v>
@@ -3403,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="D122">
-        <v>8.27</v>
+        <v>8.2699999999999996E-2</v>
       </c>
       <c r="E122" t="s">
         <v>120</v>
@@ -3420,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="D123">
-        <v>8.34</v>
+        <v>8.3400000000000002E-2</v>
       </c>
       <c r="E123" t="s">
         <v>121</v>
@@ -3437,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="D124">
-        <v>8.35</v>
+        <v>8.3499999999999991E-2</v>
       </c>
       <c r="E124" t="s">
         <v>122</v>
@@ -3454,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="D125">
-        <v>8.35</v>
+        <v>8.3499999999999991E-2</v>
       </c>
       <c r="E125" t="s">
         <v>123</v>
@@ -3471,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="D126">
-        <v>8.35</v>
+        <v>8.3499999999999991E-2</v>
       </c>
       <c r="E126" t="s">
         <v>124</v>
@@ -3488,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="D127">
-        <v>8.42</v>
+        <v>8.4199999999999997E-2</v>
       </c>
       <c r="E127" t="s">
         <v>125</v>
@@ -3505,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="D128">
-        <v>8.39</v>
+        <v>8.3900000000000002E-2</v>
       </c>
       <c r="E128" t="s">
         <v>126</v>
@@ -3522,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="D129">
-        <v>8.3699999999999992</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="E129" t="s">
         <v>127</v>
@@ -3539,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="D130">
-        <v>8.39</v>
+        <v>8.3900000000000002E-2</v>
       </c>
       <c r="E130" t="s">
         <v>128</v>
@@ -3556,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="D131">
-        <v>8.39</v>
+        <v>8.3900000000000002E-2</v>
       </c>
       <c r="E131" t="s">
         <v>129</v>
@@ -3573,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="D132">
-        <v>8.3800000000000008</v>
+        <v>8.3800000000000013E-2</v>
       </c>
       <c r="E132" t="s">
         <v>130</v>
@@ -3590,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="D133">
-        <v>8.3800000000000008</v>
+        <v>8.3800000000000013E-2</v>
       </c>
       <c r="E133" t="s">
         <v>131</v>
@@ -3607,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="D134">
-        <v>8.35</v>
+        <v>8.3499999999999991E-2</v>
       </c>
       <c r="E134" t="s">
         <v>132</v>
@@ -3624,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="D135">
-        <v>8.32</v>
+        <v>8.3199999999999996E-2</v>
       </c>
       <c r="E135" t="s">
         <v>133</v>
@@ -3641,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="D136">
-        <v>8.3800000000000008</v>
+        <v>8.3800000000000013E-2</v>
       </c>
       <c r="E136" t="s">
         <v>134</v>
@@ -3658,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="D137">
-        <v>8.3800000000000008</v>
+        <v>8.3800000000000013E-2</v>
       </c>
       <c r="E137" t="s">
         <v>135</v>
@@ -3675,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="D138">
-        <v>8.36</v>
+        <v>8.3599999999999994E-2</v>
       </c>
       <c r="E138" t="s">
         <v>136</v>
@@ -3692,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="D139">
-        <v>8.34</v>
+        <v>8.3400000000000002E-2</v>
       </c>
       <c r="E139" t="s">
         <v>137</v>
@@ -3709,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="D140">
-        <v>8.36</v>
+        <v>8.3599999999999994E-2</v>
       </c>
       <c r="E140" t="s">
         <v>138</v>
@@ -3726,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="D141">
-        <v>8.34</v>
+        <v>8.3400000000000002E-2</v>
       </c>
       <c r="E141" t="s">
         <v>139</v>
@@ -3743,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="D142">
-        <v>8.34</v>
+        <v>8.3400000000000002E-2</v>
       </c>
       <c r="E142" t="s">
         <v>140</v>
@@ -3760,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="D143">
-        <v>8.34</v>
+        <v>8.3400000000000002E-2</v>
       </c>
       <c r="E143" t="s">
         <v>141</v>
@@ -3777,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="D144">
-        <v>8.31</v>
+        <v>8.3100000000000007E-2</v>
       </c>
       <c r="E144" t="s">
         <v>142</v>
@@ -3794,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="D145">
-        <v>8.31</v>
+        <v>8.3100000000000007E-2</v>
       </c>
       <c r="E145" t="s">
         <v>143</v>
@@ -3811,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="D146">
-        <v>8.2899999999999991</v>
+        <v>8.2899999999999988E-2</v>
       </c>
       <c r="E146" t="s">
         <v>144</v>
@@ -3828,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="D147">
-        <v>8.3000000000000007</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="E147" t="s">
         <v>145</v>
@@ -3845,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="D148">
-        <v>8.25</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="E148" t="s">
         <v>146</v>
@@ -3862,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="D149">
-        <v>8.25</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="E149" t="s">
         <v>147</v>
@@ -3879,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="D150">
-        <v>8.23</v>
+        <v>8.2299999999999998E-2</v>
       </c>
       <c r="E150" t="s">
         <v>148</v>
@@ -3896,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="D151">
-        <v>8.23</v>
+        <v>8.2299999999999998E-2</v>
       </c>
       <c r="E151" t="s">
         <v>149</v>
@@ -3913,7 +3924,7 @@
         <v>0</v>
       </c>
       <c r="D152">
-        <v>8.2899999999999991</v>
+        <v>8.2899999999999988E-2</v>
       </c>
       <c r="E152" t="s">
         <v>150</v>
@@ -3930,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="D153">
-        <v>8.2899999999999991</v>
+        <v>8.2899999999999988E-2</v>
       </c>
       <c r="E153" t="s">
         <v>151</v>
@@ -3947,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="D154">
-        <v>8.3699999999999992</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="E154" t="s">
         <v>152</v>
@@ -3964,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="D155">
-        <v>8.3699999999999992</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="E155" t="s">
         <v>153</v>
@@ -3981,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="D156">
-        <v>8.3800000000000008</v>
+        <v>8.3800000000000013E-2</v>
       </c>
       <c r="E156" t="s">
         <v>154</v>
@@ -3998,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="D157">
-        <v>8.36</v>
+        <v>8.3599999999999994E-2</v>
       </c>
       <c r="E157" t="s">
         <v>155</v>
@@ -4015,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="D158">
-        <v>8.36</v>
+        <v>8.3599999999999994E-2</v>
       </c>
       <c r="E158" t="s">
         <v>156</v>
@@ -4032,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="D159">
-        <v>8.3000000000000007</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="E159" t="s">
         <v>157</v>
@@ -4049,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="D160">
-        <v>8.41</v>
+        <v>8.4100000000000008E-2</v>
       </c>
       <c r="E160" t="s">
         <v>158</v>
@@ -4066,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="D161">
-        <v>8.41</v>
+        <v>8.4100000000000008E-2</v>
       </c>
       <c r="E161" t="s">
         <v>159</v>
@@ -4083,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="D162">
-        <v>8.33</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="E162" t="s">
         <v>160</v>
@@ -4100,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="D163">
-        <v>8.32</v>
+        <v>8.3199999999999996E-2</v>
       </c>
       <c r="E163" t="s">
         <v>161</v>
@@ -4117,7 +4128,7 @@
         <v>0</v>
       </c>
       <c r="D164">
-        <v>8.3800000000000008</v>
+        <v>8.3800000000000013E-2</v>
       </c>
       <c r="E164" t="s">
         <v>162</v>
@@ -4134,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="D165">
-        <v>8.35</v>
+        <v>8.3499999999999991E-2</v>
       </c>
       <c r="E165" t="s">
         <v>163</v>
@@ -4151,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="D166">
-        <v>8.32</v>
+        <v>8.3199999999999996E-2</v>
       </c>
       <c r="E166" t="s">
         <v>164</v>
@@ -4168,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="D167">
-        <v>8.32</v>
+        <v>8.3199999999999996E-2</v>
       </c>
       <c r="E167" t="s">
         <v>165</v>
@@ -4185,7 +4196,7 @@
         <v>0</v>
       </c>
       <c r="D168">
-        <v>8.34</v>
+        <v>8.3400000000000002E-2</v>
       </c>
       <c r="E168" t="s">
         <v>166</v>
@@ -4202,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="D169">
-        <v>8.34</v>
+        <v>8.3400000000000002E-2</v>
       </c>
       <c r="E169" t="s">
         <v>167</v>
@@ -4219,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="D170">
-        <v>8.31</v>
+        <v>8.3100000000000007E-2</v>
       </c>
       <c r="E170" t="s">
         <v>168</v>
@@ -4236,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="D171">
-        <v>8.2799999999999994</v>
+        <v>8.2799999999999999E-2</v>
       </c>
       <c r="E171" t="s">
         <v>169</v>
@@ -4253,7 +4264,7 @@
         <v>0</v>
       </c>
       <c r="D172">
-        <v>8.35</v>
+        <v>8.3499999999999991E-2</v>
       </c>
       <c r="E172" t="s">
         <v>170</v>
@@ -4270,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="D173">
-        <v>8.35</v>
+        <v>8.3499999999999991E-2</v>
       </c>
       <c r="E173" t="s">
         <v>171</v>
@@ -4287,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="D174">
-        <v>8.3800000000000008</v>
+        <v>8.3800000000000013E-2</v>
       </c>
       <c r="E174" t="s">
         <v>172</v>
@@ -4304,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="D175">
-        <v>8.3699999999999992</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="E175" t="s">
         <v>173</v>
@@ -4321,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="D176">
-        <v>8.3699999999999992</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="E176" t="s">
         <v>174</v>
@@ -4338,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="D177">
-        <v>8.4700000000000006</v>
+        <v>8.4700000000000011E-2</v>
       </c>
       <c r="E177" t="s">
         <v>175</v>
@@ -4355,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="D178">
-        <v>8.5299999999999994</v>
+        <v>8.5299999999999987E-2</v>
       </c>
       <c r="E178" t="s">
         <v>176</v>
@@ -4372,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="D179">
-        <v>8.5299999999999994</v>
+        <v>8.5299999999999987E-2</v>
       </c>
       <c r="E179" t="s">
         <v>177</v>
@@ -4389,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="D180">
-        <v>8.5500000000000007</v>
+        <v>8.5500000000000007E-2</v>
       </c>
       <c r="E180" t="s">
         <v>178</v>
@@ -4406,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="D181">
-        <v>8.6</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="E181" t="s">
         <v>179</v>
@@ -4423,7 +4434,7 @@
         <v>0</v>
       </c>
       <c r="D182">
-        <v>8.39</v>
+        <v>8.3900000000000002E-2</v>
       </c>
       <c r="E182" t="s">
         <v>180</v>
@@ -4440,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="D183">
-        <v>8.2899999999999991</v>
+        <v>8.2899999999999988E-2</v>
       </c>
       <c r="E183" t="s">
         <v>181</v>
@@ -4457,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="D184">
-        <v>8.36</v>
+        <v>8.3599999999999994E-2</v>
       </c>
       <c r="E184" t="s">
         <v>182</v>
@@ -4474,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="D185">
-        <v>8.36</v>
+        <v>8.3599999999999994E-2</v>
       </c>
       <c r="E185" t="s">
         <v>183</v>
@@ -4491,7 +4502,7 @@
         <v>0</v>
       </c>
       <c r="D186">
-        <v>8.3000000000000007</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="E186" t="s">
         <v>184</v>
@@ -4508,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="D187">
-        <v>8.31</v>
+        <v>8.3100000000000007E-2</v>
       </c>
       <c r="E187" t="s">
         <v>185</v>
@@ -4525,7 +4536,7 @@
         <v>0</v>
       </c>
       <c r="D188">
-        <v>8.3000000000000007</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="E188" t="s">
         <v>186</v>
@@ -4542,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="D189">
-        <v>8.32</v>
+        <v>8.3199999999999996E-2</v>
       </c>
       <c r="E189" t="s">
         <v>187</v>
@@ -4559,7 +4570,7 @@
         <v>0</v>
       </c>
       <c r="D190">
-        <v>8.32</v>
+        <v>8.3199999999999996E-2</v>
       </c>
       <c r="E190" t="s">
         <v>188</v>
@@ -4576,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="D191">
-        <v>8.32</v>
+        <v>8.3199999999999996E-2</v>
       </c>
       <c r="E191" t="s">
         <v>189</v>
@@ -4593,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="D192">
-        <v>8.32</v>
+        <v>8.3199999999999996E-2</v>
       </c>
       <c r="E192" t="s">
         <v>190</v>
@@ -4610,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="D193">
-        <v>8.33</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="E193" t="s">
         <v>191</v>
@@ -4627,7 +4638,7 @@
         <v>0</v>
       </c>
       <c r="D194">
-        <v>8.33</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="E194" t="s">
         <v>192</v>
@@ -4644,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="D195">
-        <v>8.2799999999999994</v>
+        <v>8.2799999999999999E-2</v>
       </c>
       <c r="E195" t="s">
         <v>193</v>
@@ -4661,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="D196">
-        <v>8.24</v>
+        <v>8.2400000000000001E-2</v>
       </c>
       <c r="E196" t="s">
         <v>194</v>
@@ -4678,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="D197">
-        <v>8.24</v>
+        <v>8.2400000000000001E-2</v>
       </c>
       <c r="E197" t="s">
         <v>195</v>
@@ -4695,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="D198">
-        <v>8.24</v>
+        <v>8.2400000000000001E-2</v>
       </c>
       <c r="E198" t="s">
         <v>196</v>
@@ -4712,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="D199">
-        <v>8.31</v>
+        <v>8.3100000000000007E-2</v>
       </c>
       <c r="E199" t="s">
         <v>197</v>
@@ -4729,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="D200">
-        <v>8.32</v>
+        <v>8.3199999999999996E-2</v>
       </c>
       <c r="E200" t="s">
         <v>198</v>
@@ -4746,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="D201">
-        <v>8.36</v>
+        <v>8.3599999999999994E-2</v>
       </c>
       <c r="E201" t="s">
         <v>199</v>
@@ -4763,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="D202">
-        <v>8.34</v>
+        <v>8.3400000000000002E-2</v>
       </c>
       <c r="E202" t="s">
         <v>200</v>
@@ -4780,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="D203">
-        <v>8.3699999999999992</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="E203" t="s">
         <v>201</v>
@@ -4797,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="D204">
-        <v>8.36</v>
+        <v>8.3599999999999994E-2</v>
       </c>
       <c r="E204" t="s">
         <v>202</v>
@@ -4814,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="D205">
-        <v>8.33</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="E205" t="s">
         <v>203</v>
@@ -4831,7 +4842,7 @@
         <v>0</v>
       </c>
       <c r="D206">
-        <v>8.33</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="E206" t="s">
         <v>204</v>
@@ -4848,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="D207">
-        <v>8.2200000000000006</v>
+        <v>8.2200000000000009E-2</v>
       </c>
       <c r="E207" t="s">
         <v>205</v>
@@ -4865,7 +4876,7 @@
         <v>0</v>
       </c>
       <c r="D208">
-        <v>8.35</v>
+        <v>8.3499999999999991E-2</v>
       </c>
       <c r="E208" t="s">
         <v>206</v>
@@ -4882,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="D209">
-        <v>8.35</v>
+        <v>8.3499999999999991E-2</v>
       </c>
       <c r="E209" t="s">
         <v>207</v>
@@ -4899,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="D210">
-        <v>8.33</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="E210" t="s">
         <v>208</v>
@@ -4916,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="D211">
-        <v>8.35</v>
+        <v>8.3499999999999991E-2</v>
       </c>
       <c r="E211" t="s">
         <v>209</v>
@@ -4933,7 +4944,7 @@
         <v>0</v>
       </c>
       <c r="D212">
-        <v>8.35</v>
+        <v>8.3499999999999991E-2</v>
       </c>
       <c r="E212" t="s">
         <v>210</v>
@@ -4950,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="D213">
-        <v>8.35</v>
+        <v>8.3499999999999991E-2</v>
       </c>
       <c r="E213" t="s">
         <v>211</v>
@@ -4967,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="D214">
-        <v>8.3699999999999992</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="E214" t="s">
         <v>212</v>
@@ -4984,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="D215">
-        <v>8.3699999999999992</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="E215" t="s">
         <v>213</v>
@@ -5001,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="D216">
-        <v>8.34</v>
+        <v>8.3400000000000002E-2</v>
       </c>
       <c r="E216" t="s">
         <v>214</v>
@@ -5018,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="D217">
-        <v>8.2899999999999991</v>
+        <v>8.2899999999999988E-2</v>
       </c>
       <c r="E217" t="s">
         <v>215</v>
@@ -5035,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="D218">
-        <v>8.32</v>
+        <v>8.3199999999999996E-2</v>
       </c>
       <c r="E218" t="s">
         <v>216</v>
@@ -5052,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="D219">
-        <v>8.36</v>
+        <v>8.3599999999999994E-2</v>
       </c>
       <c r="E219" t="s">
         <v>217</v>
@@ -5069,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="D220">
-        <v>8.35</v>
+        <v>8.3499999999999991E-2</v>
       </c>
       <c r="E220" t="s">
         <v>218</v>
@@ -5086,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="D221">
-        <v>8.35</v>
+        <v>8.3499999999999991E-2</v>
       </c>
       <c r="E221" t="s">
         <v>219</v>
@@ -5103,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="D222">
-        <v>8.3000000000000007</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="E222" t="s">
         <v>220</v>
@@ -5120,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="D223">
-        <v>8.31</v>
+        <v>8.3100000000000007E-2</v>
       </c>
       <c r="E223" t="s">
         <v>221</v>
@@ -5137,7 +5148,7 @@
         <v>0</v>
       </c>
       <c r="D224">
-        <v>8.2899999999999991</v>
+        <v>8.2899999999999988E-2</v>
       </c>
       <c r="E224" t="s">
         <v>222</v>
@@ -5154,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="D225">
-        <v>8.2899999999999991</v>
+        <v>8.2899999999999988E-2</v>
       </c>
       <c r="E225" t="s">
         <v>223</v>
@@ -5171,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="D226">
-        <v>8.34</v>
+        <v>8.3400000000000002E-2</v>
       </c>
       <c r="E226" t="s">
         <v>224</v>
@@ -5188,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="D227">
-        <v>8.34</v>
+        <v>8.3400000000000002E-2</v>
       </c>
       <c r="E227" t="s">
         <v>225</v>
@@ -5205,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="D228">
-        <v>8.32</v>
+        <v>8.3199999999999996E-2</v>
       </c>
       <c r="E228" t="s">
         <v>226</v>
@@ -5222,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="D229">
-        <v>8.2899999999999991</v>
+        <v>8.2899999999999988E-2</v>
       </c>
       <c r="E229" t="s">
         <v>227</v>
@@ -5239,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="D230">
-        <v>8.27</v>
+        <v>8.2699999999999996E-2</v>
       </c>
       <c r="E230" t="s">
         <v>228</v>
@@ -5256,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="D231">
-        <v>8.26</v>
+        <v>8.2599999999999993E-2</v>
       </c>
       <c r="E231" t="s">
         <v>229</v>
@@ -5273,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="D232">
-        <v>8.34</v>
+        <v>8.3400000000000002E-2</v>
       </c>
       <c r="E232" t="s">
         <v>230</v>
@@ -5290,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="D233">
-        <v>8.34</v>
+        <v>8.3400000000000002E-2</v>
       </c>
       <c r="E233" t="s">
         <v>231</v>
@@ -5307,7 +5318,7 @@
         <v>0</v>
       </c>
       <c r="D234">
-        <v>8.23</v>
+        <v>8.2299999999999998E-2</v>
       </c>
       <c r="E234" t="s">
         <v>232</v>
@@ -5324,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="D235">
-        <v>8.27</v>
+        <v>8.2699999999999996E-2</v>
       </c>
       <c r="E235" t="s">
         <v>233</v>
@@ -5341,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="D236">
-        <v>8.24</v>
+        <v>8.2400000000000001E-2</v>
       </c>
       <c r="E236" t="s">
         <v>234</v>
@@ -5358,7 +5369,7 @@
         <v>0</v>
       </c>
       <c r="D237">
-        <v>8.3000000000000007</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="E237" t="s">
         <v>235</v>
@@ -5375,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="D238">
-        <v>8.2799999999999994</v>
+        <v>8.2799999999999999E-2</v>
       </c>
       <c r="E238" t="s">
         <v>236</v>
@@ -5392,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="D239">
-        <v>8.2799999999999994</v>
+        <v>8.2799999999999999E-2</v>
       </c>
       <c r="E239" t="s">
         <v>237</v>
@@ -5409,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="D240">
-        <v>8.25</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="E240" t="s">
         <v>238</v>
@@ -5426,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="D241">
-        <v>8.3000000000000007</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="E241" t="s">
         <v>239</v>
@@ -5443,7 +5454,7 @@
         <v>0</v>
       </c>
       <c r="D242">
-        <v>8.31</v>
+        <v>8.3100000000000007E-2</v>
       </c>
       <c r="E242" t="s">
         <v>240</v>
@@ -5460,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="D243">
-        <v>8.26</v>
+        <v>8.2599999999999993E-2</v>
       </c>
       <c r="E243" t="s">
         <v>241</v>
@@ -5477,7 +5488,7 @@
         <v>0</v>
       </c>
       <c r="D244">
-        <v>8.23</v>
+        <v>8.2299999999999998E-2</v>
       </c>
       <c r="E244" t="s">
         <v>242</v>
@@ -5494,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="D245">
-        <v>8.23</v>
+        <v>8.2299999999999998E-2</v>
       </c>
       <c r="E245" t="s">
         <v>243</v>
@@ -5511,7 +5522,7 @@
         <v>0</v>
       </c>
       <c r="D246">
-        <v>8.26</v>
+        <v>8.2599999999999993E-2</v>
       </c>
       <c r="E246" t="s">
         <v>244</v>
@@ -5528,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="D247">
-        <v>8.33</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="E247" t="s">
         <v>245</v>
@@ -5545,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="D248">
-        <v>8.2899999999999991</v>
+        <v>8.2899999999999988E-2</v>
       </c>
       <c r="E248" t="s">
         <v>246</v>
@@ -5562,7 +5573,7 @@
         <v>0</v>
       </c>
       <c r="D249">
-        <v>8.26</v>
+        <v>8.2599999999999993E-2</v>
       </c>
       <c r="E249" t="s">
         <v>247</v>
@@ -5579,7 +5590,7 @@
         <v>0</v>
       </c>
       <c r="D250">
-        <v>8.27</v>
+        <v>8.2699999999999996E-2</v>
       </c>
       <c r="E250" t="s">
         <v>248</v>
@@ -5596,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="D251">
-        <v>8.27</v>
+        <v>8.2699999999999996E-2</v>
       </c>
       <c r="E251" t="s">
         <v>249</v>
@@ -5613,7 +5624,7 @@
         <v>0</v>
       </c>
       <c r="D252">
-        <v>8.32</v>
+        <v>8.3199999999999996E-2</v>
       </c>
       <c r="E252" t="s">
         <v>250</v>
@@ -5630,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="D253">
-        <v>8.34</v>
+        <v>8.3400000000000002E-2</v>
       </c>
       <c r="E253" t="s">
         <v>251</v>
@@ -5647,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="D254">
-        <v>8.34</v>
+        <v>8.3400000000000002E-2</v>
       </c>
       <c r="E254" t="s">
         <v>252</v>
@@ -5664,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="D255">
-        <v>8.31</v>
+        <v>8.3100000000000007E-2</v>
       </c>
       <c r="E255" t="s">
         <v>253</v>
@@ -5681,7 +5692,7 @@
         <v>0</v>
       </c>
       <c r="D256">
-        <v>8.32</v>
+        <v>8.3199999999999996E-2</v>
       </c>
       <c r="E256" t="s">
         <v>254</v>
@@ -5698,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="D257">
-        <v>8.32</v>
+        <v>8.3199999999999996E-2</v>
       </c>
       <c r="E257" t="s">
         <v>255</v>
@@ -5715,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="D258">
-        <v>8.3800000000000008</v>
+        <v>8.3800000000000013E-2</v>
       </c>
       <c r="E258" t="s">
         <v>256</v>
@@ -5732,7 +5743,7 @@
         <v>0</v>
       </c>
       <c r="D259">
-        <v>8.3800000000000008</v>
+        <v>8.3800000000000013E-2</v>
       </c>
       <c r="E259" t="s">
         <v>257</v>
@@ -5749,7 +5760,7 @@
         <v>0</v>
       </c>
       <c r="D260">
-        <v>8.34</v>
+        <v>8.3400000000000002E-2</v>
       </c>
       <c r="E260" t="s">
         <v>258</v>
@@ -5766,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="D261">
-        <v>8.41</v>
+        <v>8.4100000000000008E-2</v>
       </c>
       <c r="E261" t="s">
         <v>259</v>
@@ -5783,7 +5794,7 @@
         <v>0</v>
       </c>
       <c r="D262">
-        <v>8.42</v>
+        <v>8.4199999999999997E-2</v>
       </c>
       <c r="E262" t="s">
         <v>260</v>
@@ -5800,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="D263">
-        <v>8.42</v>
+        <v>8.4199999999999997E-2</v>
       </c>
       <c r="E263" t="s">
         <v>261</v>
@@ -5817,7 +5828,7 @@
         <v>0</v>
       </c>
       <c r="D264">
-        <v>8.39</v>
+        <v>8.3900000000000002E-2</v>
       </c>
       <c r="E264" t="s">
         <v>262</v>
@@ -5834,7 +5845,7 @@
         <v>0</v>
       </c>
       <c r="D265">
-        <v>8.3699999999999992</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="E265" t="s">
         <v>263</v>
@@ -5851,7 +5862,7 @@
         <v>0</v>
       </c>
       <c r="D266">
-        <v>8.36</v>
+        <v>8.3599999999999994E-2</v>
       </c>
       <c r="E266" t="s">
         <v>264</v>
@@ -5868,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="D267">
-        <v>8.35</v>
+        <v>8.3499999999999991E-2</v>
       </c>
       <c r="E267" t="s">
         <v>265</v>
@@ -5885,7 +5896,7 @@
         <v>0</v>
       </c>
       <c r="D268">
-        <v>8.35</v>
+        <v>8.3499999999999991E-2</v>
       </c>
       <c r="E268" t="s">
         <v>266</v>
@@ -5902,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="D269">
-        <v>8.35</v>
+        <v>8.3499999999999991E-2</v>
       </c>
       <c r="E269" t="s">
         <v>267</v>
@@ -5919,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="D270">
-        <v>8.31</v>
+        <v>8.3100000000000007E-2</v>
       </c>
       <c r="E270" t="s">
         <v>268</v>
@@ -5936,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="D271">
-        <v>8.33</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="E271" t="s">
         <v>269</v>
@@ -5953,7 +5964,7 @@
         <v>0</v>
       </c>
       <c r="D272">
-        <v>8.26</v>
+        <v>8.2599999999999993E-2</v>
       </c>
       <c r="E272" t="s">
         <v>270</v>
@@ -5970,7 +5981,7 @@
         <v>0</v>
       </c>
       <c r="D273">
-        <v>8.23</v>
+        <v>8.2299999999999998E-2</v>
       </c>
       <c r="E273" t="s">
         <v>271</v>
@@ -5987,7 +5998,7 @@
         <v>0</v>
       </c>
       <c r="D274">
-        <v>8.25</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="E274" t="s">
         <v>272</v>
@@ -6004,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="D275">
-        <v>8.25</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="E275" t="s">
         <v>273</v>
@@ -6021,7 +6032,7 @@
         <v>0</v>
       </c>
       <c r="D276">
-        <v>8.23</v>
+        <v>8.2299999999999998E-2</v>
       </c>
       <c r="E276" t="s">
         <v>274</v>
@@ -6038,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="D277">
-        <v>8.35</v>
+        <v>8.3499999999999991E-2</v>
       </c>
       <c r="E277" t="s">
         <v>275</v>
@@ -6055,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="D278">
-        <v>8.33</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="E278" t="s">
         <v>276</v>
@@ -6072,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="D279">
-        <v>8.4</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="E279" t="s">
         <v>277</v>
@@ -6089,7 +6100,7 @@
         <v>0</v>
       </c>
       <c r="D280">
-        <v>8.42</v>
+        <v>8.4199999999999997E-2</v>
       </c>
       <c r="E280" t="s">
         <v>278</v>
@@ -6106,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="D281">
-        <v>8.42</v>
+        <v>8.4199999999999997E-2</v>
       </c>
       <c r="E281" t="s">
         <v>279</v>
@@ -6123,7 +6134,7 @@
         <v>0</v>
       </c>
       <c r="D282">
-        <v>8.44</v>
+        <v>8.4399999999999989E-2</v>
       </c>
       <c r="E282" t="s">
         <v>280</v>
@@ -6140,7 +6151,7 @@
         <v>0</v>
       </c>
       <c r="D283">
-        <v>8.42</v>
+        <v>8.4199999999999997E-2</v>
       </c>
       <c r="E283" t="s">
         <v>281</v>
@@ -6157,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="D284">
-        <v>8.39</v>
+        <v>8.3900000000000002E-2</v>
       </c>
       <c r="E284" t="s">
         <v>282</v>
@@ -6174,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="D285">
-        <v>8.39</v>
+        <v>8.3900000000000002E-2</v>
       </c>
       <c r="E285" t="s">
         <v>283</v>
@@ -6191,7 +6202,7 @@
         <v>0</v>
       </c>
       <c r="D286">
-        <v>8.4600000000000009</v>
+        <v>8.4600000000000009E-2</v>
       </c>
       <c r="E286" t="s">
         <v>284</v>
@@ -6208,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="D287">
-        <v>8.4600000000000009</v>
+        <v>8.4600000000000009E-2</v>
       </c>
       <c r="E287" t="s">
         <v>285</v>
@@ -6225,7 +6236,7 @@
         <v>0</v>
       </c>
       <c r="D288">
-        <v>8.35</v>
+        <v>8.3499999999999991E-2</v>
       </c>
       <c r="E288" t="s">
         <v>286</v>
@@ -6242,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="D289">
-        <v>8.39</v>
+        <v>8.3900000000000002E-2</v>
       </c>
       <c r="E289" t="s">
         <v>287</v>
@@ -6259,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="D290">
-        <v>8.5</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="E290" t="s">
         <v>288</v>
@@ -6276,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="D291">
-        <v>8.4600000000000009</v>
+        <v>8.4600000000000009E-2</v>
       </c>
       <c r="E291" t="s">
         <v>289</v>
@@ -6293,7 +6304,7 @@
         <v>0</v>
       </c>
       <c r="D292">
-        <v>8.4</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="E292" t="s">
         <v>290</v>
@@ -6310,7 +6321,7 @@
         <v>0</v>
       </c>
       <c r="D293">
-        <v>8.4</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="E293" t="s">
         <v>291</v>
@@ -6327,7 +6338,7 @@
         <v>0</v>
       </c>
       <c r="D294">
-        <v>8.3800000000000008</v>
+        <v>8.3800000000000013E-2</v>
       </c>
       <c r="E294" t="s">
         <v>292</v>
@@ -6344,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="D295">
-        <v>8.4600000000000009</v>
+        <v>8.4600000000000009E-2</v>
       </c>
       <c r="E295" t="s">
         <v>293</v>
@@ -6361,7 +6372,7 @@
         <v>0</v>
       </c>
       <c r="D296">
-        <v>8.44</v>
+        <v>8.4399999999999989E-2</v>
       </c>
       <c r="E296" t="s">
         <v>294</v>
@@ -6378,7 +6389,7 @@
         <v>0</v>
       </c>
       <c r="D297">
-        <v>8.4700000000000006</v>
+        <v>8.4700000000000011E-2</v>
       </c>
       <c r="E297" t="s">
         <v>295</v>
@@ -6395,7 +6406,7 @@
         <v>0</v>
       </c>
       <c r="D298">
-        <v>8.48</v>
+        <v>8.48E-2</v>
       </c>
       <c r="E298" t="s">
         <v>296</v>
@@ -6412,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="D299">
-        <v>8.48</v>
+        <v>8.48E-2</v>
       </c>
       <c r="E299" t="s">
         <v>297</v>
@@ -6429,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="D300">
-        <v>8.49</v>
+        <v>8.4900000000000003E-2</v>
       </c>
       <c r="E300" t="s">
         <v>298</v>
@@ -6446,7 +6457,7 @@
         <v>0</v>
       </c>
       <c r="D301">
-        <v>8.4600000000000009</v>
+        <v>8.4600000000000009E-2</v>
       </c>
       <c r="E301" t="s">
         <v>299</v>
@@ -6463,7 +6474,7 @@
         <v>0</v>
       </c>
       <c r="D302">
-        <v>8.4700000000000006</v>
+        <v>8.4700000000000011E-2</v>
       </c>
       <c r="E302" t="s">
         <v>300</v>
@@ -6480,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="D303">
-        <v>8.4499999999999993</v>
+        <v>8.4499999999999992E-2</v>
       </c>
       <c r="E303" t="s">
         <v>301</v>
@@ -6497,7 +6508,7 @@
         <v>0</v>
       </c>
       <c r="D304">
-        <v>8.49</v>
+        <v>8.4900000000000003E-2</v>
       </c>
       <c r="E304" t="s">
         <v>302</v>
@@ -6514,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="D305">
-        <v>8.49</v>
+        <v>8.4900000000000003E-2</v>
       </c>
       <c r="E305" t="s">
         <v>303</v>
@@ -6531,7 +6542,7 @@
         <v>0</v>
       </c>
       <c r="D306">
-        <v>8.58</v>
+        <v>8.5800000000000001E-2</v>
       </c>
       <c r="E306" t="s">
         <v>304</v>
@@ -6548,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="D307">
-        <v>8.52</v>
+        <v>8.5199999999999998E-2</v>
       </c>
       <c r="E307" t="s">
         <v>305</v>
@@ -6565,7 +6576,7 @@
         <v>0</v>
       </c>
       <c r="D308">
-        <v>8.5</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="E308" t="s">
         <v>306</v>
@@ -6582,7 +6593,7 @@
         <v>0</v>
       </c>
       <c r="D309">
-        <v>8.52</v>
+        <v>8.5199999999999998E-2</v>
       </c>
       <c r="E309" t="s">
         <v>307</v>
@@ -6599,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="D310">
-        <v>8.44</v>
+        <v>8.4399999999999989E-2</v>
       </c>
       <c r="E310" t="s">
         <v>308</v>
@@ -6616,7 +6627,7 @@
         <v>0</v>
       </c>
       <c r="D311">
-        <v>8.44</v>
+        <v>8.4399999999999989E-2</v>
       </c>
       <c r="E311" t="s">
         <v>309</v>
@@ -6633,7 +6644,7 @@
         <v>0</v>
       </c>
       <c r="D312">
-        <v>8.44</v>
+        <v>8.4399999999999989E-2</v>
       </c>
       <c r="E312" t="s">
         <v>310</v>
@@ -6650,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="D313">
-        <v>8.44</v>
+        <v>8.4399999999999989E-2</v>
       </c>
       <c r="E313" t="s">
         <v>311</v>
@@ -6667,7 +6678,7 @@
         <v>0</v>
       </c>
       <c r="D314">
-        <v>8.44</v>
+        <v>8.4399999999999989E-2</v>
       </c>
       <c r="E314" t="s">
         <v>312</v>
@@ -6684,7 +6695,7 @@
         <v>0</v>
       </c>
       <c r="D315">
-        <v>8.49</v>
+        <v>8.4900000000000003E-2</v>
       </c>
       <c r="E315" t="s">
         <v>313</v>
@@ -6701,7 +6712,7 @@
         <v>0</v>
       </c>
       <c r="D316">
-        <v>8.5399999999999991</v>
+        <v>8.539999999999999E-2</v>
       </c>
       <c r="E316" t="s">
         <v>314</v>
